--- a/Staging/DataModel/ProductDataModel.xlsx
+++ b/Staging/DataModel/ProductDataModel.xlsx
@@ -33,9 +33,6 @@
     <t>ExcludeFlag</t>
   </si>
   <si>
-    <t>Natural Key</t>
-  </si>
-  <si>
     <t>CDC</t>
   </si>
   <si>
@@ -144,10 +141,13 @@
     <t>Address</t>
   </si>
   <si>
-    <t>xref.OrderId</t>
-  </si>
-  <si>
-    <t>xref.OrderName</t>
+    <t>Xref.OrderId</t>
+  </si>
+  <si>
+    <t>Xref.OrderName</t>
+  </si>
+  <si>
+    <t>NaturalKey</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K4:K6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,332 +572,332 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Staging/DataModel/ProductDataModel.xlsx
+++ b/Staging/DataModel/ProductDataModel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
   <si>
     <t>ColumnName</t>
   </si>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -908,12 +908,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="H2:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
